--- a/biology/Médecine/Terminologies_et_classifications_en_médecine/Terminologies_et_classifications_en_médecine.xlsx
+++ b/biology/Médecine/Terminologies_et_classifications_en_médecine/Terminologies_et_classifications_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Terminologies_et_classifications_en_m%C3%A9decine</t>
+          <t>Terminologies_et_classifications_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appréhension du champ des terminologies, taxonomies et des classifications en médecine est facilitée par la compréhension de certains concepts et définitions empruntés à la linguistique.
 Ces notions font l'objet de définitions dans la première section consacrée à la linguistique médicale. Ensuite, des exemples de terminologies et de classifications médicales sont présentés et discutés dans les sections suivantes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Terminologies_et_classifications_en_m%C3%A9decine</t>
+          <t>Terminologies_et_classifications_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les codifications sont utilisées pour des statistiques de santé publique ou d'évaluation économique (bénéfice-coût des traitements)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les codifications sont utilisées pour des statistiques de santé publique ou d'évaluation économique (bénéfice-coût des traitements).
 Elles servent à l'échange de données (par exemple la facturation) et aux traitements automatisés (ex : banque des contre-indications médicamenteuse).
 Elles permettent l'indexation des informations, et notamment des dossiers de patients.
 Ce qu'on peut codifier : 
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Terminologies_et_classifications_en_m%C3%A9decine</t>
+          <t>Terminologies_et_classifications_en_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l'inspiration des taxonomies naturalistes François Boissier de Sauvages de Lacroix publie Nosologia methodica  en 1763. En 1798 Philippe Pinel  écrit sa Nosographie philosophique.
-En  1855, William Farr et Marc d'Espine publient la première classification internationale des « causes de décès »[2] à la demande du premier congrès international de statistique de 1853. Elle restera peu utilisée en pratique. 
-En 1891, l'institut international de statistique charge Jacques Bertillon de créer la « Classification des causes de décès »[3] qui deviendra en 1948, pour sa sixième édition, la classification internationale des maladies (CIM).
+En  1855, William Farr et Marc d'Espine publient la première classification internationale des « causes de décès » à la demande du premier congrès international de statistique de 1853. Elle restera peu utilisée en pratique. 
+En 1891, l'institut international de statistique charge Jacques Bertillon de créer la « Classification des causes de décès » qui deviendra en 1948, pour sa sixième édition, la classification internationale des maladies (CIM).
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Terminologies_et_classifications_en_m%C3%A9decine</t>
+          <t>Terminologies_et_classifications_en_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Introduction
-Définitions
-Terminologie</t>
+          <t>Introduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -599,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Terminologies_et_classifications_en_m%C3%A9decine</t>
+          <t>Terminologies_et_classifications_en_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,43 +635,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Terminologies médicales</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Terminologie UNE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Terminologies_et_classifications_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Terminologies_et_classifications_en_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Classifications médicales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Classification UNE</t>
+</t>
         </is>
       </c>
     </row>
